--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1192259381866931</v>
+        <v>7.919340387786086E-08</v>
       </c>
       <c r="E2">
-        <v>0.1192259381866931</v>
+        <v>7.919340387786086E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9998583832018941</v>
+        <v>0.9999999679681576</v>
       </c>
       <c r="E3">
-        <v>0.9998583832018941</v>
+        <v>0.9999999679681576</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9990629641807199</v>
+        <v>0.9955807630199707</v>
       </c>
       <c r="E4">
-        <v>0.0009370358192800632</v>
+        <v>0.004419236980029329</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999999974966405</v>
+        <v>0.9999999999999716</v>
       </c>
       <c r="E5">
-        <v>2.503359519678838E-09</v>
+        <v>2.842170943040401E-14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009330304323691219</v>
+        <v>0.003450676946001859</v>
       </c>
       <c r="E6">
-        <v>0.9906696956763088</v>
+        <v>0.9965493230539981</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999998673001</v>
+        <v>0.9999999874009758</v>
       </c>
       <c r="E7">
-        <v>1.326998511075317E-10</v>
+        <v>1.259902415728931E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.595784567889059E-05</v>
+        <v>0.002634377503377587</v>
       </c>
       <c r="E8">
-        <v>0.9999640421543211</v>
+        <v>0.9973656224966224</v>
       </c>
       <c r="F8">
-        <v>3.413990020751953</v>
+        <v>4.124179363250732</v>
       </c>
       <c r="G8">
         <v>0.5714285714285714</v>
